--- a/download_excel/yl.xlsx
+++ b/download_excel/yl.xlsx
@@ -203,7 +203,7 @@
     <t>2021-05-01-2021-05-31</t>
   </si>
   <si>
-    <t>2021-06-05</t>
+    <t>2021-06-18</t>
   </si>
   <si>
     <t>2</t>
@@ -2087,6 +2087,24 @@
     <t>88</t>
   </si>
   <si>
+    <t>一泡三响</t>
+  </si>
+  <si>
+    <t>1p3x</t>
+  </si>
+  <si>
+    <t>//p26.douyinpic.com/aweme/1080x1080/31261000848cfae5cbf0a.webp?from=2956013662</t>
+  </si>
+  <si>
+    <t>亳州市谯城区盛世华衣服饰官方账号</t>
+  </si>
+  <si>
+    <t>545.71w</t>
+  </si>
+  <si>
+    <t>5.18w</t>
+  </si>
+  <si>
     <t>何泓姗VivaHo今晚6:30直播</t>
   </si>
   <si>
@@ -2103,24 +2121,6 @@
   </si>
   <si>
     <t>146</t>
-  </si>
-  <si>
-    <t>5.18w</t>
-  </si>
-  <si>
-    <t>一泡三响</t>
-  </si>
-  <si>
-    <t>1p3x</t>
-  </si>
-  <si>
-    <t>//p26.douyinpic.com/aweme/1080x1080/31261000848cfae5cbf0a.webp?from=2956013662</t>
-  </si>
-  <si>
-    <t>亳州市谯城区盛世华衣服饰官方账号</t>
-  </si>
-  <si>
-    <t>545.71w</t>
   </si>
   <si>
     <t>汕头市澄海区戈力玩具厂</t>
@@ -8867,13 +8867,13 @@
         <v>683</v>
       </c>
       <c r="H89" t="s" s="35">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="I89" t="s" s="35">
+        <v>296</v>
+      </c>
+      <c r="J89" t="s" s="35">
         <v>684</v>
-      </c>
-      <c r="J89" t="s" s="35">
-        <v>685</v>
       </c>
       <c r="K89" t="s" s="35">
         <v>50</v>
@@ -8887,31 +8887,31 @@
         <v>573</v>
       </c>
       <c r="B90" t="s" s="35">
+        <v>685</v>
+      </c>
+      <c r="C90" t="s" s="35">
         <v>686</v>
       </c>
-      <c r="C90" t="s" s="35">
+      <c r="D90" t="s" s="35">
         <v>687</v>
-      </c>
-      <c r="D90" t="s" s="35">
-        <v>688</v>
       </c>
       <c r="E90" t="s" s="35">
         <v>45</v>
       </c>
       <c r="F90" t="s" s="35">
+        <v>688</v>
+      </c>
+      <c r="G90" t="s" s="35">
         <v>689</v>
       </c>
-      <c r="G90" t="s" s="35">
+      <c r="H90" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="I90" t="s" s="35">
         <v>690</v>
       </c>
-      <c r="H90" t="s" s="35">
-        <v>324</v>
-      </c>
-      <c r="I90" t="s" s="35">
-        <v>296</v>
-      </c>
       <c r="J90" t="s" s="35">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K90" t="s" s="35">
         <v>50</v>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="35">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B147" t="s" s="35">
         <v>1050</v>
